--- a/02.models/table_RR.xlsx
+++ b/02.models/table_RR.xlsx
@@ -688,13 +688,13 @@
         <v>195</v>
       </c>
       <c r="D2" t="n">
-        <v>3.08</v>
+        <v>2.17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.69</v>
+        <v>0.37</v>
       </c>
       <c r="F2" t="n">
-        <v>13.73</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="3">
@@ -708,13 +708,13 @@
         <v>196</v>
       </c>
       <c r="D3" t="n">
-        <v>2.87</v>
+        <v>2.07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7</v>
+        <v>0.39</v>
       </c>
       <c r="F3" t="n">
-        <v>11.7</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>197</v>
       </c>
       <c r="D4" t="n">
-        <v>2.27</v>
+        <v>1.78</v>
       </c>
       <c r="E4" t="n">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="F4" t="n">
-        <v>6.81</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="5">
@@ -748,13 +748,13 @@
         <v>198</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="E5" t="n">
-        <v>0.77</v>
+        <v>0.48</v>
       </c>
       <c r="F5" t="n">
-        <v>6.32</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">
@@ -768,13 +768,13 @@
         <v>195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>4.08</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7">
@@ -788,13 +788,13 @@
         <v>196</v>
       </c>
       <c r="D7" t="n">
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
       <c r="E7" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="8">
@@ -808,13 +808,13 @@
         <v>197</v>
       </c>
       <c r="D8" t="n">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="F8" t="n">
-        <v>2.67</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="9">
@@ -828,13 +828,13 @@
         <v>198</v>
       </c>
       <c r="D9" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
@@ -848,13 +848,13 @@
         <v>195</v>
       </c>
       <c r="D10" t="n">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="E10" t="n">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="F10" t="n">
-        <v>8.8</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="11">
@@ -868,13 +868,13 @@
         <v>196</v>
       </c>
       <c r="D11" t="n">
-        <v>2.36</v>
+        <v>1.9</v>
       </c>
       <c r="E11" t="n">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="F11" t="n">
-        <v>7.66</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="12">
@@ -888,13 +888,13 @@
         <v>197</v>
       </c>
       <c r="D12" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="E12" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="F12" t="n">
-        <v>4.79</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="13">
@@ -908,13 +908,13 @@
         <v>198</v>
       </c>
       <c r="D13" t="n">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="E13" t="n">
-        <v>0.76</v>
+        <v>0.49</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="14">
@@ -928,13 +928,13 @@
         <v>195</v>
       </c>
       <c r="D14" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E14" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15">
@@ -948,13 +948,13 @@
         <v>196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16">
@@ -968,13 +968,13 @@
         <v>197</v>
       </c>
       <c r="D16" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F16" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="17">
@@ -988,13 +988,13 @@
         <v>198</v>
       </c>
       <c r="D17" t="n">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="E17" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="F17" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18">
@@ -1008,13 +1008,13 @@
         <v>195</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="F18" t="n">
-        <v>3.76</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="19">
@@ -1028,13 +1028,13 @@
         <v>196</v>
       </c>
       <c r="D19" t="n">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="F19" t="n">
-        <v>3.44</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="20">
@@ -1048,13 +1048,13 @@
         <v>197</v>
       </c>
       <c r="D20" t="n">
-        <v>0.97</v>
+        <v>0.51</v>
       </c>
       <c r="E20" t="n">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="21">
@@ -1068,13 +1068,13 @@
         <v>198</v>
       </c>
       <c r="D21" t="n">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
       <c r="E21" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="F21" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="22">
@@ -1088,13 +1088,13 @@
         <v>195</v>
       </c>
       <c r="D22" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="E22" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="F22" t="n">
-        <v>3.06</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="23">
@@ -1111,10 +1111,10 @@
         <v>1.24</v>
       </c>
       <c r="E23" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="F23" t="n">
-        <v>2.84</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="24">
@@ -1128,13 +1128,13 @@
         <v>197</v>
       </c>
       <c r="D24" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="25">
@@ -1148,13 +1148,13 @@
         <v>198</v>
       </c>
       <c r="D25" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="E25" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="F25" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
@@ -1168,13 +1168,13 @@
         <v>195</v>
       </c>
       <c r="D26" t="n">
-        <v>2.29</v>
+        <v>4.97</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F26" t="n">
-        <v>6.54</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="27">
@@ -1188,13 +1188,13 @@
         <v>196</v>
       </c>
       <c r="D27" t="n">
-        <v>2.19</v>
+        <v>4.64</v>
       </c>
       <c r="E27" t="n">
-        <v>0.82</v>
+        <v>1.4</v>
       </c>
       <c r="F27" t="n">
-        <v>5.87</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="28">
@@ -1208,13 +1208,13 @@
         <v>197</v>
       </c>
       <c r="D28" t="n">
-        <v>1.89</v>
+        <v>3.68</v>
       </c>
       <c r="E28" t="n">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="F28" t="n">
-        <v>4.08</v>
+        <v>9.78</v>
       </c>
     </row>
     <row r="29">
@@ -1228,13 +1228,13 @@
         <v>198</v>
       </c>
       <c r="D29" t="n">
-        <v>1.85</v>
+        <v>3.56</v>
       </c>
       <c r="E29" t="n">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="F29" t="n">
-        <v>3.88</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="30">
@@ -1248,13 +1248,13 @@
         <v>195</v>
       </c>
       <c r="D30" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="E30" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="31">
@@ -1268,13 +1268,13 @@
         <v>196</v>
       </c>
       <c r="D31" t="n">
-        <v>0.69</v>
+        <v>0.74</v>
       </c>
       <c r="E31" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="F31" t="n">
-        <v>1.84</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="32">
@@ -1288,13 +1288,13 @@
         <v>197</v>
       </c>
       <c r="D32" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="E32" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="F32" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="33">
@@ -1308,13 +1308,13 @@
         <v>198</v>
       </c>
       <c r="D33" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="E33" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="F33" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="34">
@@ -1328,13 +1328,13 @@
         <v>195</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="F34" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="35">
@@ -1348,13 +1348,13 @@
         <v>196</v>
       </c>
       <c r="D35" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="E35" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="F35" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="36">
@@ -1368,13 +1368,13 @@
         <v>197</v>
       </c>
       <c r="D36" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E36" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="F36" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="37">
@@ -1388,13 +1388,13 @@
         <v>198</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E37" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38">
@@ -1408,13 +1408,13 @@
         <v>195</v>
       </c>
       <c r="D38" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="E38" t="n">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="F38" t="n">
-        <v>7.9</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="39">
@@ -1428,13 +1428,13 @@
         <v>196</v>
       </c>
       <c r="D39" t="n">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="E39" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="F39" t="n">
-        <v>6.95</v>
+        <v>9.72</v>
       </c>
     </row>
     <row r="40">
@@ -1448,13 +1448,13 @@
         <v>197</v>
       </c>
       <c r="D40" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="E40" t="n">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="F40" t="n">
-        <v>4.52</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="41">
@@ -1468,13 +1468,13 @@
         <v>198</v>
       </c>
       <c r="D41" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="E41" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F41" t="n">
-        <v>4.25</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="42">
@@ -1488,13 +1488,13 @@
         <v>195</v>
       </c>
       <c r="D42" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="E42" t="n">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="F42" t="n">
-        <v>9.11</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="43">
@@ -1508,13 +1508,13 @@
         <v>196</v>
       </c>
       <c r="D43" t="n">
-        <v>2.84</v>
+        <v>1.77</v>
       </c>
       <c r="E43" t="n">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="F43" t="n">
-        <v>7.94</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="44">
@@ -1528,13 +1528,13 @@
         <v>197</v>
       </c>
       <c r="D44" t="n">
-        <v>2.24</v>
+        <v>1.47</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>0.55</v>
       </c>
       <c r="F44" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="45">
@@ -1548,13 +1548,13 @@
         <v>198</v>
       </c>
       <c r="D45" t="n">
-        <v>2.17</v>
+        <v>1.44</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>0.55</v>
       </c>
       <c r="F45" t="n">
-        <v>4.68</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="46">
@@ -1568,13 +1568,13 @@
         <v>195</v>
       </c>
       <c r="D46" t="n">
-        <v>2.28</v>
+        <v>2.61</v>
       </c>
       <c r="E46" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F46" t="n">
-        <v>5.82</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="47">
@@ -1588,13 +1588,13 @@
         <v>196</v>
       </c>
       <c r="D47" t="n">
-        <v>2.15</v>
+        <v>2.44</v>
       </c>
       <c r="E47" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F47" t="n">
-        <v>5.2</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="48">
@@ -1608,13 +1608,13 @@
         <v>197</v>
       </c>
       <c r="D48" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F48" t="n">
-        <v>3.55</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="49">
@@ -1628,13 +1628,13 @@
         <v>198</v>
       </c>
       <c r="D49" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F49" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="50">
@@ -1648,13 +1648,13 @@
         <v>195</v>
       </c>
       <c r="D50" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E50" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="F50" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="51">
@@ -1668,13 +1668,13 @@
         <v>196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="E51" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="F51" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="52">
@@ -1688,13 +1688,13 @@
         <v>197</v>
       </c>
       <c r="D52" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="E52" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="F52" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="53">
@@ -1708,13 +1708,13 @@
         <v>198</v>
       </c>
       <c r="D53" t="n">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="E53" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F53" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="54">
@@ -1728,13 +1728,13 @@
         <v>195</v>
       </c>
       <c r="D54" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="55">
@@ -1748,13 +1748,13 @@
         <v>196</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F55" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="56">
@@ -1768,13 +1768,13 @@
         <v>197</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="57">
@@ -1788,13 +1788,13 @@
         <v>198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F57" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="58">
@@ -1808,13 +1808,13 @@
         <v>195</v>
       </c>
       <c r="D58" t="n">
-        <v>0.63</v>
+        <v>0.23</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="F58" t="n">
-        <v>2.04</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="59">
@@ -1828,13 +1828,13 @@
         <v>196</v>
       </c>
       <c r="D59" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="E59" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="F59" t="n">
-        <v>1.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="60">
@@ -1848,13 +1848,13 @@
         <v>197</v>
       </c>
       <c r="D60" t="n">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="E60" t="n">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="F60" t="n">
-        <v>1.54</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="61">
@@ -1868,13 +1868,13 @@
         <v>198</v>
       </c>
       <c r="D61" t="n">
-        <v>0.66</v>
+        <v>0.26</v>
       </c>
       <c r="E61" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="F61" t="n">
-        <v>1.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="62">
@@ -1888,13 +1888,13 @@
         <v>195</v>
       </c>
       <c r="D62" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="E62" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="F62" t="n">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="63">
@@ -1908,13 +1908,13 @@
         <v>196</v>
       </c>
       <c r="D63" t="n">
-        <v>0.95</v>
+        <v>0.69</v>
       </c>
       <c r="E63" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="F63" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="64">
@@ -1928,13 +1928,13 @@
         <v>197</v>
       </c>
       <c r="D64" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="E64" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="F64" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="65">
@@ -1948,13 +1948,13 @@
         <v>198</v>
       </c>
       <c r="D65" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="E65" t="n">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
       <c r="F65" t="n">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="66">
@@ -1968,13 +1968,13 @@
         <v>195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="E66" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="F66" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="67">
@@ -1988,13 +1988,13 @@
         <v>196</v>
       </c>
       <c r="D67" t="n">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="E67" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="F67" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="68">
@@ -2008,13 +2008,13 @@
         <v>197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="E68" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="F68" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="69">
@@ -2028,13 +2028,13 @@
         <v>198</v>
       </c>
       <c r="D69" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="E69" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="F69" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="70">
@@ -2048,13 +2048,13 @@
         <v>195</v>
       </c>
       <c r="D70" t="n">
-        <v>1.01</v>
+        <v>0.7</v>
       </c>
       <c r="E70" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="F70" t="n">
-        <v>2.47</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="71">
@@ -2068,13 +2068,13 @@
         <v>196</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01</v>
+        <v>0.71</v>
       </c>
       <c r="E71" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="F71" t="n">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="72">
@@ -2088,13 +2088,13 @@
         <v>197</v>
       </c>
       <c r="D72" t="n">
-        <v>1.0</v>
+        <v>0.73</v>
       </c>
       <c r="E72" t="n">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="F72" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="73">
@@ -2108,13 +2108,13 @@
         <v>198</v>
       </c>
       <c r="D73" t="n">
-        <v>1.0</v>
+        <v>0.73</v>
       </c>
       <c r="E73" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="F73" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="74">
@@ -2128,13 +2128,13 @@
         <v>195</v>
       </c>
       <c r="D74" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="E74" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="F74" t="n">
-        <v>12.43</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="75">
@@ -2151,10 +2151,10 @@
         <v>1.63</v>
       </c>
       <c r="E75" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="F75" t="n">
-        <v>10.47</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="76">
@@ -2168,13 +2168,13 @@
         <v>197</v>
       </c>
       <c r="D76" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="E76" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="F76" t="n">
-        <v>5.89</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="77">
@@ -2188,13 +2188,13 @@
         <v>198</v>
       </c>
       <c r="D77" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="E77" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="F77" t="n">
-        <v>5.45</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="78">
@@ -2208,13 +2208,13 @@
         <v>195</v>
       </c>
       <c r="D78" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F78" t="n">
-        <v>1.0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="79">
@@ -2228,13 +2228,13 @@
         <v>196</v>
       </c>
       <c r="D79" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F79" t="n">
-        <v>0.98</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="80">
@@ -2248,13 +2248,13 @@
         <v>197</v>
       </c>
       <c r="D80" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="F80" t="n">
-        <v>0.91</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="81">
@@ -2268,13 +2268,13 @@
         <v>198</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="E81" t="n">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="82">
@@ -2288,13 +2288,13 @@
         <v>195</v>
       </c>
       <c r="D82" t="n">
-        <v>0.87</v>
+        <v>0.57</v>
       </c>
       <c r="E82" t="n">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="F82" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="83">
@@ -2308,13 +2308,13 @@
         <v>196</v>
       </c>
       <c r="D83" t="n">
-        <v>0.87</v>
+        <v>0.57</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F83" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="84">
@@ -2328,13 +2328,13 @@
         <v>197</v>
       </c>
       <c r="D84" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="E84" t="n">
-        <v>0.56</v>
+        <v>0.33</v>
       </c>
       <c r="F84" t="n">
-        <v>1.32</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="85">
@@ -2348,13 +2348,13 @@
         <v>198</v>
       </c>
       <c r="D85" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="E85" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="F85" t="n">
-        <v>1.29</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="86">
@@ -2368,13 +2368,13 @@
         <v>195</v>
       </c>
       <c r="D86" t="n">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="E86" t="n">
-        <v>0.69</v>
+        <v>0.44</v>
       </c>
       <c r="F86" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="87">
@@ -2388,13 +2388,13 @@
         <v>196</v>
       </c>
       <c r="D87" t="n">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="F87" t="n">
-        <v>4.81</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="88">
@@ -2408,13 +2408,13 @@
         <v>197</v>
       </c>
       <c r="D88" t="n">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="E88" t="n">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="F88" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="89">
@@ -2428,13 +2428,13 @@
         <v>198</v>
       </c>
       <c r="D89" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="E89" t="n">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="F89" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="90">
@@ -2448,13 +2448,13 @@
         <v>195</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8</v>
+        <v>0.56</v>
       </c>
       <c r="E90" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="F90" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="91">
@@ -2468,13 +2468,13 @@
         <v>196</v>
       </c>
       <c r="D91" t="n">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="E91" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="F91" t="n">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="92">
@@ -2488,13 +2488,13 @@
         <v>197</v>
       </c>
       <c r="D92" t="n">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="E92" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="F92" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="93">
@@ -2508,13 +2508,13 @@
         <v>198</v>
       </c>
       <c r="D93" t="n">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="E93" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="F93" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="94">
@@ -2528,13 +2528,13 @@
         <v>195</v>
       </c>
       <c r="D94" t="n">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="E94" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="F94" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="95">
@@ -2548,13 +2548,13 @@
         <v>196</v>
       </c>
       <c r="D95" t="n">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="E95" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="F95" t="n">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="96">
@@ -2568,13 +2568,13 @@
         <v>197</v>
       </c>
       <c r="D96" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="F96" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="97">
@@ -2588,13 +2588,13 @@
         <v>198</v>
       </c>
       <c r="D97" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="E97" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="F97" t="n">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="98">
@@ -2608,13 +2608,13 @@
         <v>195</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E98" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F98" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="99">
@@ -2628,13 +2628,13 @@
         <v>196</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F99" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="100">
@@ -2648,13 +2648,13 @@
         <v>197</v>
       </c>
       <c r="D100" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="E100" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F100" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="101">
@@ -2668,13 +2668,13 @@
         <v>198</v>
       </c>
       <c r="D101" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="F101" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="102">
@@ -2688,13 +2688,13 @@
         <v>195</v>
       </c>
       <c r="D102" t="n">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="F102" t="n">
-        <v>2.0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="103">
@@ -2708,13 +2708,13 @@
         <v>196</v>
       </c>
       <c r="D103" t="n">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
       <c r="E103" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="F103" t="n">
-        <v>1.89</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="104">
@@ -2728,13 +2728,13 @@
         <v>197</v>
       </c>
       <c r="D104" t="n">
-        <v>0.67</v>
+        <v>0.35</v>
       </c>
       <c r="E104" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="F104" t="n">
-        <v>1.56</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="105">
@@ -2748,13 +2748,13 @@
         <v>198</v>
       </c>
       <c r="D105" t="n">
-        <v>0.68</v>
+        <v>0.35</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="F105" t="n">
-        <v>1.52</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="106">
@@ -2768,13 +2768,13 @@
         <v>195</v>
       </c>
       <c r="D106" t="n">
-        <v>0.76</v>
+        <v>1.42</v>
       </c>
       <c r="E106" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F106" t="n">
-        <v>4.64</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="107">
@@ -2788,13 +2788,13 @@
         <v>196</v>
       </c>
       <c r="D107" t="n">
-        <v>0.78</v>
+        <v>1.39</v>
       </c>
       <c r="E107" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="F107" t="n">
-        <v>4.22</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="108">
@@ -2808,13 +2808,13 @@
         <v>197</v>
       </c>
       <c r="D108" t="n">
-        <v>0.82</v>
+        <v>1.27</v>
       </c>
       <c r="E108" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F108" t="n">
-        <v>3.07</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="109">
@@ -2828,13 +2828,13 @@
         <v>198</v>
       </c>
       <c r="D109" t="n">
-        <v>0.82</v>
+        <v>1.25</v>
       </c>
       <c r="E109" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F109" t="n">
-        <v>2.94</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="110">
@@ -2848,13 +2848,13 @@
         <v>195</v>
       </c>
       <c r="D110" t="n">
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="E110" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F110" t="n">
-        <v>2.08</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="111">
@@ -2868,13 +2868,13 @@
         <v>196</v>
       </c>
       <c r="D111" t="n">
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="E111" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="F111" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="112">
@@ -2888,13 +2888,13 @@
         <v>197</v>
       </c>
       <c r="D112" t="n">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="E112" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="F112" t="n">
-        <v>1.58</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>198</v>
       </c>
       <c r="D113" t="n">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
       <c r="E113" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="F113" t="n">
-        <v>1.54</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
@@ -2928,13 +2928,13 @@
         <v>195</v>
       </c>
       <c r="D114" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="E114" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="F114" t="n">
-        <v>2.33</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="115">
@@ -2948,13 +2948,13 @@
         <v>196</v>
       </c>
       <c r="D115" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E115" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F115" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="116">
@@ -2968,13 +2968,13 @@
         <v>197</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="F116" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="117">
@@ -2988,13 +2988,13 @@
         <v>198</v>
       </c>
       <c r="D117" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="F117" t="n">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="118">
@@ -3008,13 +3008,13 @@
         <v>195</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="E118" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F118" t="n">
-        <v>5.39</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="119">
@@ -3028,13 +3028,13 @@
         <v>196</v>
       </c>
       <c r="D119" t="n">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F119" t="n">
-        <v>4.83</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="120">
@@ -3048,13 +3048,13 @@
         <v>197</v>
       </c>
       <c r="D120" t="n">
-        <v>0.74</v>
+        <v>0.58</v>
       </c>
       <c r="E120" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="F120" t="n">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="121">
@@ -3068,13 +3068,13 @@
         <v>198</v>
       </c>
       <c r="D121" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="E121" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F121" t="n">
-        <v>3.18</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="122">
@@ -3088,13 +3088,13 @@
         <v>195</v>
       </c>
       <c r="D122" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="F122" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="123">
@@ -3108,13 +3108,13 @@
         <v>196</v>
       </c>
       <c r="D123" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="E123" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="F123" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="124">
@@ -3128,13 +3128,13 @@
         <v>197</v>
       </c>
       <c r="D124" t="n">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F124" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="125">
@@ -3148,13 +3148,13 @@
         <v>198</v>
       </c>
       <c r="D125" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="E125" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="F125" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="126">
@@ -3168,13 +3168,13 @@
         <v>195</v>
       </c>
       <c r="D126" t="n">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="E126" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="F126" t="n">
-        <v>2.17</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="127">
@@ -3188,13 +3188,13 @@
         <v>196</v>
       </c>
       <c r="D127" t="n">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="F127" t="n">
-        <v>2.07</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="128">
@@ -3208,13 +3208,13 @@
         <v>197</v>
       </c>
       <c r="D128" t="n">
-        <v>0.84</v>
+        <v>1.17</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="F128" t="n">
-        <v>1.78</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="129">
@@ -3228,13 +3228,13 @@
         <v>198</v>
       </c>
       <c r="D129" t="n">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="E129" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="F129" t="n">
-        <v>1.74</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="130">
@@ -3248,13 +3248,13 @@
         <v>195</v>
       </c>
       <c r="D130" t="n">
-        <v>1.18</v>
+        <v>1.69</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F130" t="n">
-        <v>3.53</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="131">
@@ -3268,13 +3268,13 @@
         <v>196</v>
       </c>
       <c r="D131" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="E131" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="F131" t="n">
-        <v>3.26</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="132">
@@ -3288,13 +3288,13 @@
         <v>197</v>
       </c>
       <c r="D132" t="n">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F132" t="n">
-        <v>2.49</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="133">
@@ -3308,13 +3308,13 @@
         <v>198</v>
       </c>
       <c r="D133" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="E133" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F133" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="134">
@@ -3328,13 +3328,13 @@
         <v>195</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E134" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="F134" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="135">
@@ -3348,13 +3348,13 @@
         <v>196</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E135" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="F135" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="136">
@@ -3368,13 +3368,13 @@
         <v>197</v>
       </c>
       <c r="D136" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="E136" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="F136" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="137">
@@ -3388,13 +3388,13 @@
         <v>198</v>
       </c>
       <c r="D137" t="n">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="E137" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="F137" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="138">
@@ -3408,13 +3408,13 @@
         <v>195</v>
       </c>
       <c r="D138" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F138" t="n">
-        <v>0.94</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="139">
@@ -3428,13 +3428,13 @@
         <v>196</v>
       </c>
       <c r="D139" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="E139" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F139" t="n">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="140">
@@ -3448,13 +3448,13 @@
         <v>197</v>
       </c>
       <c r="D140" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="E140" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F140" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="141">
@@ -3468,13 +3468,13 @@
         <v>198</v>
       </c>
       <c r="D141" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="142">
@@ -3488,13 +3488,13 @@
         <v>195</v>
       </c>
       <c r="D142" t="n">
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
       <c r="E142" t="n">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="F142" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="143">
@@ -3508,13 +3508,13 @@
         <v>196</v>
       </c>
       <c r="D143" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="E143" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="F143" t="n">
-        <v>0.92</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="144">
@@ -3528,13 +3528,13 @@
         <v>197</v>
       </c>
       <c r="D144" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="E144" t="n">
-        <v>0.29</v>
+        <v>0.13</v>
       </c>
       <c r="F144" t="n">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="145">
@@ -3548,13 +3548,13 @@
         <v>198</v>
       </c>
       <c r="D145" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="F145" t="n">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="146">
@@ -3568,13 +3568,13 @@
         <v>195</v>
       </c>
       <c r="D146" t="n">
-        <v>3.8</v>
+        <v>4.43</v>
       </c>
       <c r="E146" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="F146" t="n">
-        <v>8.95</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="147">
@@ -3588,13 +3588,13 @@
         <v>196</v>
       </c>
       <c r="D147" t="n">
-        <v>3.47</v>
+        <v>3.98</v>
       </c>
       <c r="E147" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="F147" t="n">
-        <v>7.75</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="148">
@@ -3608,13 +3608,13 @@
         <v>197</v>
       </c>
       <c r="D148" t="n">
-        <v>2.56</v>
+        <v>2.77</v>
       </c>
       <c r="E148" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="F148" t="n">
-        <v>4.78</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="149">
@@ -3628,13 +3628,13 @@
         <v>198</v>
       </c>
       <c r="D149" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="E149" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="F149" t="n">
-        <v>4.48</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="150">
@@ -3648,13 +3648,13 @@
         <v>195</v>
       </c>
       <c r="D150" t="n">
-        <v>1.68</v>
+        <v>0.85</v>
       </c>
       <c r="E150" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="F150" t="n">
-        <v>4.46</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="151">
@@ -3668,13 +3668,13 @@
         <v>196</v>
       </c>
       <c r="D151" t="n">
-        <v>1.6</v>
+        <v>0.82</v>
       </c>
       <c r="E151" t="n">
-        <v>0.64</v>
+        <v>0.26</v>
       </c>
       <c r="F151" t="n">
-        <v>4.01</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="152">
@@ -3688,13 +3688,13 @@
         <v>197</v>
       </c>
       <c r="D152" t="n">
-        <v>1.37</v>
+        <v>0.71</v>
       </c>
       <c r="E152" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="F152" t="n">
-        <v>2.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="153">
@@ -3708,13 +3708,13 @@
         <v>198</v>
       </c>
       <c r="D153" t="n">
-        <v>1.34</v>
+        <v>0.7</v>
       </c>
       <c r="E153" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="F153" t="n">
-        <v>2.67</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
